--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804967DE-5314-AD4A-8A36-3F9F916060E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC93B1-EB8C-8C45-B9A4-36F378E61E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15640" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>TERM</t>
   </si>
@@ -40,9 +40,6 @@
     <t>MAPPINGS</t>
   </si>
   <si>
-    <t>humerus M4, diameter perpendicular to M3</t>
-  </si>
-  <si>
     <t>humerus M7, maximal breadth of the trochlea</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>humerus diaphysis breadth</t>
   </si>
   <si>
-    <t>humerus medial length</t>
-  </si>
-  <si>
-    <t>Humerus medial length; H1</t>
-  </si>
-  <si>
     <t>humerus diaphysis depth</t>
   </si>
   <si>
@@ -211,10 +202,13 @@
     <t>Humerus Width Distal 2 (epicondyles); humerus tubercle width</t>
   </si>
   <si>
-    <t>humerus diaphysis width ML; Humerus smallest diameter</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>Text Definition</t>
   </si>
 </sst>
 </file>
@@ -603,20 +597,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="37.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,338 +621,320 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="2" t="s">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="2" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC93B1-EB8C-8C45-B9A4-36F378E61E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC26EF-A082-BA43-BC1A-3FA629192E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="strucutres" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="strucutres" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>TERM</t>
   </si>
@@ -209,6 +211,36 @@
   </si>
   <si>
     <t>Text Definition</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('lateralmost part of' some 'trochlea of humerus')</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('lateralmost part of' some 'proximal head of humerus')</t>
+  </si>
+  <si>
+    <t>trochlea of humerus</t>
+  </si>
+  <si>
+    <t>ventral tubercle of humerus</t>
+  </si>
+  <si>
+    <t>proximal head of humerus</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>subclass</t>
   </si>
 </sst>
 </file>
@@ -275,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -283,6 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0C65B2-CEBA-624B-9A6A-685165CE8E09}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -952,4 +985,91 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE243CA4-793B-EC48-AA3B-8A66CF10AE4E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects trochlea of humerus and proximal head of humerus</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC26EF-A082-BA43-BC1A-3FA629192E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CAA88-13BB-6547-B7BB-BAD57BA6A266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="2" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
   <si>
     <t>TERM</t>
   </si>
@@ -108,9 +108,6 @@
     <t>humerus diaphysis depth</t>
   </si>
   <si>
-    <t>humerus distal trochlear breadth</t>
-  </si>
-  <si>
     <t>humerus length from trochlea to greater tubercle</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Humerus Width Distal 2 (epicondyles); humerus tubercle width</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>Text Definition</t>
   </si>
   <si>
-    <t>anatomical point' and ('lateralmost part of' some 'trochlea of humerus')</t>
-  </si>
-  <si>
-    <t>anatomical point' and ('lateralmost part of' some 'proximal head of humerus')</t>
-  </si>
-  <si>
     <t>trochlea of humerus</t>
   </si>
   <si>
@@ -241,6 +229,114 @@
   </si>
   <si>
     <t>subclass</t>
+  </si>
+  <si>
+    <t>greater trochanter of humerus</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>greater tubercle</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>lateralside and ('part of' some 'humerus')</t>
+  </si>
+  <si>
+    <t>diaphysis of humerus</t>
+  </si>
+  <si>
+    <t>diaphysis' and ('part of' some humerus)</t>
+  </si>
+  <si>
+    <t>A diaphysis that is part of a humerus.</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>distalmost part of' some humerus</t>
+  </si>
+  <si>
+    <t>proximalmost part of' some humerus</t>
+  </si>
+  <si>
+    <t>humerus</t>
+  </si>
+  <si>
+    <t>medialmost part of' some 'proximal head of humerus'</t>
+  </si>
+  <si>
+    <t>lateralpart of' some 'greater tubercle'</t>
+  </si>
+  <si>
+    <t>medial side' and ('part of' some humerus)</t>
+  </si>
+  <si>
+    <t>trochlear sulcus of humerus</t>
+  </si>
+  <si>
+    <t>trochlear ridge of humerus</t>
+  </si>
+  <si>
+    <t>sulcus and ('part of' some 'trochlea of humerus')</t>
+  </si>
+  <si>
+    <t>The depression of the middle of a trochlea of a humerus.</t>
+  </si>
+  <si>
+    <t>The ridge in the middle of a trochlea of a humerus</t>
+  </si>
+  <si>
+    <t>skeletal element projection' and ('part of' some 'trochlea of huemrus')</t>
   </si>
 </sst>
 </file>
@@ -307,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -316,6 +412,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,14 +731,16 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="37.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="37.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -654,39 +754,39 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -694,16 +794,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -711,10 +811,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -723,33 +823,33 @@
         <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -757,13 +857,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -774,42 +874,42 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
@@ -817,7 +917,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -831,7 +931,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -845,7 +945,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -859,113 +959,105 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
@@ -977,12 +1069,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0C65B2-CEBA-624B-9A6A-685165CE8E09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -991,38 +1238,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE243CA4-793B-EC48-AA3B-8A66CF10AE4E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,29 +1284,25 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D4" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
-        <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>line that connects trochlea of humerus and proximal head of humerus</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1062,14 +1312,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CAA88-13BB-6547-B7BB-BAD57BA6A266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785BCCB6-08AF-0E4D-BCDB-9B02A05E97D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785BCCB6-08AF-0E4D-BCDB-9B02A05E97D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14AE11C-0B36-934A-B293-B199293D41CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>TERM</t>
   </si>
@@ -45,15 +45,6 @@
     <t>humerus M7, maximal breadth of the trochlea</t>
   </si>
   <si>
-    <t>humerus M9, maximal trochlear height (medial)</t>
-  </si>
-  <si>
-    <t>humerus M10, minimal trochlea height (in the middle)</t>
-  </si>
-  <si>
-    <t>humerus M11, trochlear height at the sagittal creast (near the condyle)</t>
-  </si>
-  <si>
     <t>Humerus Bp, humerus greatest breadth proximal, humerus M5, proximal maximal breadth</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Humerus greatest depth proximal</t>
   </si>
   <si>
-    <t>Humerus height of the trochlea</t>
-  </si>
-  <si>
     <t>Humerus least breadth of the trochlea</t>
   </si>
   <si>
@@ -81,12 +69,6 @@
     <t>humerus trochlea breadth</t>
   </si>
   <si>
-    <t>maximal humerus trochlear height (medial side)</t>
-  </si>
-  <si>
-    <t>minimal humerus trochlear height</t>
-  </si>
-  <si>
     <t>humerus trochlear height at sagittal crest</t>
   </si>
   <si>
@@ -195,9 +177,6 @@
     <t>in FOVT; no equivalency yet</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -337,13 +316,28 @@
   </si>
   <si>
     <t>skeletal element projection' and ('part of' some 'trochlea of huemrus')</t>
+  </si>
+  <si>
+    <t>humerus M9, maximal trochlear height (medial); maximal humerus trochlear height (medial side)</t>
+  </si>
+  <si>
+    <t>humerus medial trochlear height</t>
+  </si>
+  <si>
+    <t>humerus M10, minimal trochlea height (in the middle); minimal humerus trochlear height</t>
+  </si>
+  <si>
+    <t>humerus trochlear sulcus height</t>
+  </si>
+  <si>
+    <t>humerus M11, trochlear height at the sagittal creast (near the condyle); humerus trochlear height at sagittal crest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,12 +361,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -403,14 +391,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -728,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,39 +741,39 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -794,16 +781,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -811,62 +798,65 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
@@ -874,84 +864,93 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
         <v>11</v>
@@ -959,107 +958,99 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="3" t="s">
-        <v>9</v>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1071,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0C65B2-CEBA-624B-9A6A-685165CE8E09}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,148 +1073,148 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,30 +1240,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1281,13 +1272,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1296,13 +1287,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1321,88 +1312,88 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14AE11C-0B36-934A-B293-B199293D41CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F58D2F-FFCA-B446-8539-3A0A1E648766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>TERM</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Humerus Bp, humerus greatest breadth proximal, humerus M5, proximal maximal breadth</t>
   </si>
   <si>
-    <t>Humerus SC, Humerus KC, humerus smallest breadth of the corpus, humerus M3, minimal breadth (oblique)</t>
-  </si>
-  <si>
     <t>Humerus Bd, humerus greatest breadth distal, humerus M8, distal maximal depth</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>Humerus greatest depth proximal</t>
   </si>
   <si>
-    <t>Humerus least breadth of the trochlea</t>
-  </si>
-  <si>
-    <t>Humerus least height of the trochlea constriction</t>
-  </si>
-  <si>
     <t>humerus trochlea breadth</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>humerus proximal depth at median tubercule</t>
   </si>
   <si>
-    <t>Humerus minimum diaphysis width; H7</t>
-  </si>
-  <si>
     <t>humerus diaphysis breadth</t>
   </si>
   <si>
@@ -324,13 +312,16 @@
     <t>humerus medial trochlear height</t>
   </si>
   <si>
-    <t>humerus M10, minimal trochlea height (in the middle); minimal humerus trochlear height</t>
-  </si>
-  <si>
     <t>humerus trochlear sulcus height</t>
   </si>
   <si>
     <t>humerus M11, trochlear height at the sagittal creast (near the condyle); humerus trochlear height at sagittal crest</t>
+  </si>
+  <si>
+    <t>humerus M10, Humerus least height of the trochlea constriction; Humerus least breadth of the trochlea; minimal trochlea height (in the middle); minimal humerus trochlear height</t>
+  </si>
+  <si>
+    <t>Humerus minimum diaphysis width; H7; Humerus SC, Humerus KC, humerus smallest breadth of the corpus, minimal breadth (oblique)</t>
   </si>
 </sst>
 </file>
@@ -718,7 +709,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,39 +732,39 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -781,16 +772,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -798,45 +789,45 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -844,19 +835,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
@@ -864,42 +855,42 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
@@ -907,16 +898,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
@@ -924,16 +915,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -941,16 +932,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1">
         <v>11</v>
@@ -958,100 +949,94 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,148 +1058,148 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,30 +1225,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1272,13 +1257,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1287,13 +1272,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1313,87 +1298,87 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F58D2F-FFCA-B446-8539-3A0A1E648766}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BC487-FD7D-7F49-AD70-D263B8034891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>TERM</t>
   </si>
@@ -198,9 +198,6 @@
     <t>subclass</t>
   </si>
   <si>
-    <t>greater trochanter of humerus</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>greater tubercle</t>
-  </si>
-  <si>
     <t>Axis</t>
   </si>
   <si>
@@ -255,15 +249,6 @@
     <t>lateralside and ('part of' some 'humerus')</t>
   </si>
   <si>
-    <t>diaphysis of humerus</t>
-  </si>
-  <si>
-    <t>diaphysis' and ('part of' some humerus)</t>
-  </si>
-  <si>
-    <t>A diaphysis that is part of a humerus.</t>
-  </si>
-  <si>
     <t>medial-lateral</t>
   </si>
   <si>
@@ -322,6 +307,12 @@
   </si>
   <si>
     <t>Humerus minimum diaphysis width; H7; Humerus SC, Humerus KC, humerus smallest breadth of the corpus, minimal breadth (oblique)</t>
+  </si>
+  <si>
+    <t>humerus diaphysis</t>
+  </si>
+  <si>
+    <t>trochlear groove of humerus</t>
   </si>
 </sst>
 </file>
@@ -708,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -798,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -904,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
@@ -921,10 +912,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -941,7 +932,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>11</v>
@@ -1047,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0C65B2-CEBA-624B-9A6A-685165CE8E09}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,13 +1052,13 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,10 +1066,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1108,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -1119,32 +1110,32 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1152,10 +1143,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1163,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1174,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,10 +1176,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1288,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,84 +1295,69 @@
         <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BC487-FD7D-7F49-AD70-D263B8034891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D570783-D156-8245-A3B7-80F6CA7133F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>TERM</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>trochlear groove of humerus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>made synonym request on phenotype-ext</t>
+  </si>
+  <si>
+    <t>on fovt-humerus; made pull request</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0C65B2-CEBA-624B-9A6A-685165CE8E09}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1279,80 +1288,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>86</v>
       </c>
     </row>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D570783-D156-8245-A3B7-80F6CA7133F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF8B0B-4AAA-C249-B6C7-FA412AB14178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="3" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>TERM</t>
   </si>
@@ -322,6 +322,21 @@
   </si>
   <si>
     <t>on fovt-humerus; made pull request</t>
+  </si>
+  <si>
+    <t>taxon restrictions</t>
+  </si>
+  <si>
+    <t>horses only</t>
+  </si>
+  <si>
+    <t>in canids and lagomorphs</t>
+  </si>
+  <si>
+    <t>in equids and ruminants</t>
+  </si>
+  <si>
+    <t>never in canid or lagomorphs</t>
   </si>
 </sst>
 </file>
@@ -706,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +736,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,8 +764,11 @@
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -770,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -787,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -810,7 +828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -832,8 +850,11 @@
       <c r="H5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -853,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -878,8 +899,11 @@
       <c r="I7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -896,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -913,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -930,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -947,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -960,8 +984,11 @@
       <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -980,8 +1007,11 @@
       <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1290,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF8B0B-4AAA-C249-B6C7-FA412AB14178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B58A9D-1181-E045-9D8B-AB33E8D10AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>TERM</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>never in canid or lagomorphs</t>
+  </si>
+  <si>
+    <t>humerus distal trochlear breadth</t>
   </si>
 </sst>
 </file>
@@ -377,12 +380,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -407,6 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,17 +1069,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B58A9D-1181-E045-9D8B-AB33E8D10AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E014554-C522-2641-BE99-C52D861EB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>TERM</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>humerus distal trochlear breadth</t>
+  </si>
+  <si>
+    <t>emailed Amelia for clarification</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,16 +1072,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E014554-C522-2641-BE99-C52D861EB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78AFB7-2C09-814E-AB45-E5D869303C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>made synonym request on phenotype-ext</t>
   </si>
   <si>
-    <t>on fovt-humerus; made pull request</t>
-  </si>
-  <si>
     <t>taxon restrictions</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>emailed Amelia for clarification</t>
+  </si>
+  <si>
+    <t>pull request merged</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +778,7 @@
         <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1074,10 +1074,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78AFB7-2C09-814E-AB45-E5D869303C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F09DFE-F649-E140-8DA8-17752BF5D258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>TERM</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Humerus Bp, humerus greatest breadth proximal, humerus M5, proximal maximal breadth</t>
   </si>
   <si>
-    <t>Humerus Bd, humerus greatest breadth distal, humerus M8, distal maximal depth</t>
-  </si>
-  <si>
     <t>humerus M6, proximal depth at level of median tubercule</t>
   </si>
   <si>
@@ -336,13 +333,13 @@
     <t>never in canid or lagomorphs</t>
   </si>
   <si>
-    <t>humerus distal trochlear breadth</t>
-  </si>
-  <si>
-    <t>emailed Amelia for clarification</t>
-  </si>
-  <si>
     <t>pull request merged</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Humerus Bd, humerus greatest breadth distal, humerus M8, distal maximal depth; humerus distal trochlear breadth</t>
   </si>
 </sst>
 </file>
@@ -383,18 +380,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -409,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,7 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,42 +750,42 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -803,16 +793,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -820,68 +810,68 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>6</v>
@@ -889,45 +879,45 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
@@ -935,16 +925,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
@@ -952,16 +942,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -969,16 +959,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1">
         <v>11</v>
@@ -986,105 +976,102 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>102</v>
-      </c>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
@@ -1108,148 +1095,148 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,30 +1262,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D3" si="0">"line that connects "&amp;B2&amp;" and "&amp;C2</f>
@@ -1307,13 +1294,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1322,13 +1309,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5408CC-7D2C-2D4F-9411-E0EEB9E5D2AB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1348,80 +1335,80 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F09DFE-F649-E140-8DA8-17752BF5D258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B9128-B8B9-FC40-A988-8C44DE1013FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
@@ -23,12 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>TERM</t>
   </si>
@@ -340,6 +347,9 @@
   </si>
   <si>
     <t>Humerus Bd, humerus greatest breadth distal, humerus M8, distal maximal depth; humerus distal trochlear breadth</t>
+  </si>
+  <si>
+    <t>humerus diameter</t>
   </si>
 </sst>
 </file>
@@ -726,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,13 +1075,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>

--- a/terms/humerusTerms.xlsx
+++ b/terms/humerusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B9128-B8B9-FC40-A988-8C44DE1013FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7811991D-68E4-5341-8CE0-0E0717D8491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{F23A2512-91FC-704B-9AAB-E04409255F0F}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804D6643-5125-3444-B491-FDA35096E8C4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
